--- a/biology/Zoologie/Cuvieronius/Cuvieronius.xlsx
+++ b/biology/Zoologie/Cuvieronius/Cuvieronius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuvieronius est un  genre fossile de gomphothères ayant vécu dans ce qui est aujourd'hui l'Amérique, du début du Pliocène vers la fin du Pléistocène, il y a 4,9 millions d'années à 12 000 ans. Selon Paleobiology Database en 2022, ce genre a six espèces référencées.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cuvieronius a été décrit et publié par Henry Fairfield Osborn en 1923[1],[2]. Ce nom de genre Cuvieronius rend hommage au naturaliste français Georges Cuvier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cuvieronius a été décrit et publié par Henry Fairfield Osborn en 1923,. Ce nom de genre Cuvieronius rend hommage au naturaliste français Georges Cuvier.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus grande et la plus récente espèce, Cuvieronius hyodon, qui a vécu en Amérique du Sud, il y a entre 126 000 à 12 000 ans[3] avait une hauteur au garrot de 2,3 m pour 5 m de long et pesait environ 3,5 tonnes[4] et aurait eu comme prédateur Smilodon populator qui a vécu sur même continent à la même époque.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus grande et la plus récente espèce, Cuvieronius hyodon, qui a vécu en Amérique du Sud, il y a entre 126 000 à 12 000 ans avait une hauteur au garrot de 2,3 m pour 5 m de long et pesait environ 3,5 tonnes et aurait eu comme prédateur Smilodon populator qui a vécu sur même continent à la même époque.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les restes de fossiles les plus anciens à ce jour sont des espèces de Cuvieronius découvertes dans le comté de Lincoln, au Nevada, qui datent d'il y a 4,6 millions d'années. Il a également été trouvé aussi loin à l'est que la Caroline du Sud et la Caroline du Nord dans des roches du Pléistocène datant d'il y a 1,8 million d'années à 126 000 ans[anglicisme à remplacer]. En Floride, les vestiges montrent à la fois Cuvieronius sp. et C. tropicus vivant de 3,7 à 1,5 Ma[5]. Les plus récentes découvertes de Cuvieronius en Amérique du Nord se situent à Sonora, au Mexique, il y a 13 000 ans[6].
-Selon un groupe de mammalogistes brésiliens, de nombreux sites d'Amérique du Sud faisant référence à Cuvieronius se réfèrent en fait à Notiomastodon, de nombreuses études précédentes étiquetant simplement des fossiles, l'un ou l'autre en fonction de leur emplacement, seules les localités étant « clairement » identifiées comme étant Cuvieronius[pas clair]. Les hautes Andes de l’Équateur au nord, à la Bolivie au sud, avec les localités situées au sud des Andes, au Chili et en Argentine, qui appartiendraient maintenant à Notiomastodon[Quoi ?] . Le même groupe n'atteint aucun fossile confirmé de Cuvieronius[Quoi ?] existant au-delà de 44 000 ans en Amérique du Sud, de sorte que l'espèce ne se serait pas trouvée en Amérique du Sud au moment de l'arrivée de l'homme[7]. À la fin du Pléistocène, la limite nord de l'aire de répartition de Cuvieronius se trouvait au Mexique[8].
-Des fossiles de Cuvieronius ont été découverts dans les formations en Bolivie, Colombie[9], Costa Rica, en Équateur, au Salvador, au Guatemala, au Mexique, au Nicaragua, au Panama, aux États-Unis et au Venezuela[10].
-On raconte que des restes de Cuvieronius ont été découverts en Équateur avec des artefacts humains datant d'environ 200 à 400 apr. J.-C.[11].[pas clair] 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les restes de fossiles les plus anciens à ce jour sont des espèces de Cuvieronius découvertes dans le comté de Lincoln, au Nevada, qui datent d'il y a 4,6 millions d'années. Il a également été trouvé aussi loin à l'est que la Caroline du Sud et la Caroline du Nord dans des roches du Pléistocène datant d'il y a 1,8 million d'années à 126 000 ans[anglicisme à remplacer]. En Floride, les vestiges montrent à la fois Cuvieronius sp. et C. tropicus vivant de 3,7 à 1,5 Ma. Les plus récentes découvertes de Cuvieronius en Amérique du Nord se situent à Sonora, au Mexique, il y a 13 000 ans.
+Selon un groupe de mammalogistes brésiliens, de nombreux sites d'Amérique du Sud faisant référence à Cuvieronius se réfèrent en fait à Notiomastodon, de nombreuses études précédentes étiquetant simplement des fossiles, l'un ou l'autre en fonction de leur emplacement, seules les localités étant « clairement » identifiées comme étant Cuvieronius[pas clair]. Les hautes Andes de l’Équateur au nord, à la Bolivie au sud, avec les localités situées au sud des Andes, au Chili et en Argentine, qui appartiendraient maintenant à Notiomastodon[Quoi ?] . Le même groupe n'atteint aucun fossile confirmé de Cuvieronius[Quoi ?] existant au-delà de 44 000 ans en Amérique du Sud, de sorte que l'espèce ne se serait pas trouvée en Amérique du Sud au moment de l'arrivée de l'homme. À la fin du Pléistocène, la limite nord de l'aire de répartition de Cuvieronius se trouvait au Mexique.
+Des fossiles de Cuvieronius ont été découverts dans les formations en Bolivie, Colombie, Costa Rica, en Équateur, au Salvador, au Guatemala, au Mexique, au Nicaragua, au Panama, aux États-Unis et au Venezuela.
+On raconte que des restes de Cuvieronius ont été découverts en Équateur avec des artefacts humains datant d'environ 200 à 400 apr. J.-C..[pas clair] 
 </t>
         </is>
       </c>
